--- a/0_1_Output_Data/5_ifoCAST_error_series_full/ifoCAst_errors_full_first.xlsx
+++ b/0_1_Output_Data/5_ifoCAST_error_series_full/ifoCAst_errors_full_first.xlsx
@@ -2138,83 +2138,122 @@
       <c r="C128">
         <v>-0.3737868047750048</v>
       </c>
-    </row>
-    <row r="129" spans="1:3">
+      <c r="D128">
+        <v>0.5614898640156477</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
       <c r="A129" s="1" t="s">
         <v>130</v>
       </c>
       <c r="C129">
         <v>-0.0998215807750048</v>
       </c>
-    </row>
-    <row r="130" spans="1:3">
+      <c r="D129">
+        <v>0.7804486233837438</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
       <c r="A130" s="1" t="s">
         <v>131</v>
       </c>
       <c r="C130">
         <v>-0.09603892277500481</v>
       </c>
-    </row>
-    <row r="131" spans="1:3">
+      <c r="D130">
+        <v>0.7918746591162638</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
       <c r="A131" s="1" t="s">
         <v>132</v>
       </c>
       <c r="C131">
         <v>-0.07958040477500478</v>
       </c>
-    </row>
-    <row r="132" spans="1:3">
+      <c r="D131">
+        <v>0.7115302101128926</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
       <c r="A132" s="1" t="s">
         <v>133</v>
       </c>
       <c r="C132">
         <v>0.1417440962249952</v>
       </c>
-    </row>
-    <row r="133" spans="1:3">
+      <c r="D132">
+        <v>0.7732527029753358</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
       <c r="A133" s="1" t="s">
         <v>134</v>
       </c>
       <c r="B133">
         <v>0.04818924522499524</v>
       </c>
-    </row>
-    <row r="134" spans="1:3">
+      <c r="C133">
+        <v>0.5947585845621888</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
       <c r="A134" s="1" t="s">
         <v>135</v>
       </c>
       <c r="B134">
         <v>0.1373663892249952</v>
       </c>
-    </row>
-    <row r="135" spans="1:3">
+      <c r="C134">
+        <v>-0.1471494033888783</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
       <c r="A135" s="1" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="136" spans="1:3">
+      <c r="C135">
+        <v>0.2315426859737066</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
       <c r="A136" s="1" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="137" spans="1:3">
+      <c r="C136">
+        <v>0.5186180303197108</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
       <c r="A137" s="1" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="138" spans="1:3">
+      <c r="C137">
+        <v>0.5462623555331837</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
       <c r="A138" s="1" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="139" spans="1:3">
+      <c r="C138">
+        <v>0.3054124296933831</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
       <c r="A139" s="1" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="140" spans="1:3">
+      <c r="C139">
+        <v>0.3912781359200057</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
       <c r="A140" s="1" t="s">
         <v>141</v>
+      </c>
+      <c r="B140">
+        <v>0.09995295491779371</v>
       </c>
     </row>
   </sheetData>

--- a/0_1_Output_Data/5_ifoCAST_error_series_full/ifoCAst_errors_full_first.xlsx
+++ b/0_1_Output_Data/5_ifoCAST_error_series_full/ifoCAst_errors_full_first.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="147">
   <si>
     <t>Qminus1</t>
   </si>
@@ -440,6 +440,21 @@
   </si>
   <si>
     <t>2025-07-07_diff</t>
+  </si>
+  <si>
+    <t>2025-07-25_diff</t>
+  </si>
+  <si>
+    <t>2025-08-07_diff</t>
+  </si>
+  <si>
+    <t>2025-08-22_diff</t>
+  </si>
+  <si>
+    <t>2025-08-25_diff</t>
+  </si>
+  <si>
+    <t>2025-09-08_diff</t>
   </si>
 </sst>
 </file>
@@ -797,7 +812,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D140"/>
+  <dimension ref="A1:D145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2138,9 +2153,6 @@
       <c r="C128">
         <v>-0.3737868047750048</v>
       </c>
-      <c r="D128">
-        <v>0.5614898640156477</v>
-      </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="1" t="s">
@@ -2150,7 +2162,7 @@
         <v>-0.0998215807750048</v>
       </c>
       <c r="D129">
-        <v>0.7804486233837438</v>
+        <v>0.7804486234241067</v>
       </c>
     </row>
     <row r="130" spans="1:4">
@@ -2161,7 +2173,7 @@
         <v>-0.09603892277500481</v>
       </c>
       <c r="D130">
-        <v>0.7918746591162638</v>
+        <v>0.7918746594241067</v>
       </c>
     </row>
     <row r="131" spans="1:4">
@@ -2172,7 +2184,7 @@
         <v>-0.07958040477500478</v>
       </c>
       <c r="D131">
-        <v>0.7115302101128926</v>
+        <v>0.7115302104241067</v>
       </c>
     </row>
     <row r="132" spans="1:4">
@@ -2183,7 +2195,7 @@
         <v>0.1417440962249952</v>
       </c>
       <c r="D132">
-        <v>0.7732527029753358</v>
+        <v>0.7732527034241068</v>
       </c>
     </row>
     <row r="133" spans="1:4">
@@ -2194,7 +2206,7 @@
         <v>0.04818924522499524</v>
       </c>
       <c r="C133">
-        <v>0.5947585845621888</v>
+        <v>0.5947585844241068</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -2205,7 +2217,7 @@
         <v>0.1373663892249952</v>
       </c>
       <c r="C134">
-        <v>-0.1471494033888783</v>
+        <v>-0.1471494035758933</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -2213,7 +2225,7 @@
         <v>136</v>
       </c>
       <c r="C135">
-        <v>0.2315426859737066</v>
+        <v>0.2315426864241067</v>
       </c>
     </row>
     <row r="136" spans="1:4">
@@ -2221,7 +2233,7 @@
         <v>137</v>
       </c>
       <c r="C136">
-        <v>0.5186180303197108</v>
+        <v>0.5186180304241067</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -2229,7 +2241,7 @@
         <v>138</v>
       </c>
       <c r="C137">
-        <v>0.5462623555331837</v>
+        <v>0.5462623554241067</v>
       </c>
     </row>
     <row r="138" spans="1:4">
@@ -2237,7 +2249,7 @@
         <v>139</v>
       </c>
       <c r="C138">
-        <v>0.3054124296933831</v>
+        <v>0.3054124294241067</v>
       </c>
     </row>
     <row r="139" spans="1:4">
@@ -2245,7 +2257,7 @@
         <v>140</v>
       </c>
       <c r="C139">
-        <v>0.3912781359200057</v>
+        <v>0.3912781354241067</v>
       </c>
     </row>
     <row r="140" spans="1:4">
@@ -2253,7 +2265,35 @@
         <v>141</v>
       </c>
       <c r="B140">
-        <v>0.09995295491779371</v>
+        <v>0.0999529544241067</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B141">
+        <v>0.05603945542410671</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1">
+      <c r="A145" s="1" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>

--- a/0_1_Output_Data/5_ifoCAST_error_series_full/ifoCAst_errors_full_first.xlsx
+++ b/0_1_Output_Data/5_ifoCAST_error_series_full/ifoCAst_errors_full_first.xlsx
@@ -2235,6 +2235,9 @@
       <c r="C136">
         <v>0.5186180304241067</v>
       </c>
+      <c r="D136">
+        <v>0.791995474</v>
+      </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="1" t="s">
@@ -2243,6 +2246,9 @@
       <c r="C137">
         <v>0.5462623554241067</v>
       </c>
+      <c r="D137">
+        <v>0.788120887</v>
+      </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="1" t="s">
@@ -2251,6 +2257,9 @@
       <c r="C138">
         <v>0.3054124294241067</v>
       </c>
+      <c r="D138">
+        <v>0.597740902</v>
+      </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="1" t="s">
@@ -2259,6 +2268,9 @@
       <c r="C139">
         <v>0.3912781354241067</v>
       </c>
+      <c r="D139">
+        <v>0.620527487</v>
+      </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="1" t="s">
@@ -2267,6 +2279,9 @@
       <c r="B140">
         <v>0.0999529544241067</v>
       </c>
+      <c r="C140">
+        <v>0.241887844</v>
+      </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="1" t="s">
@@ -2275,25 +2290,40 @@
       <c r="B141">
         <v>0.05603945542410671</v>
       </c>
+      <c r="C141">
+        <v>0.331651578</v>
+      </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="1" t="s">
         <v>143</v>
       </c>
+      <c r="C142">
+        <v>0.154182215</v>
+      </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="1" t="s">
         <v>144</v>
       </c>
+      <c r="C143">
+        <v>0.166899468</v>
+      </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="1" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="145" spans="1:1">
+      <c r="C144">
+        <v>0.042359665</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
       <c r="A145" s="1" t="s">
         <v>146</v>
+      </c>
+      <c r="C145">
+        <v>0.266698307</v>
       </c>
     </row>
   </sheetData>
